--- a/Dispa-SET/Simulation/InputDispa-SET - FuelPrice.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - FuelPrice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="229">
   <si>
     <t>Coal</t>
   </si>
@@ -701,78 +701,6 @@
   </si>
   <si>
     <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IH22"/>
+  <dimension ref="A1:HJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -1145,12 +1073,12 @@
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242">
+    <row r="1" spans="1:218">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:242">
+    <row r="2" spans="1:218">
       <c r="C2">
         <v>2012</v>
       </c>
@@ -1799,80 +1727,8 @@
       <c r="HJ2">
         <v>2012</v>
       </c>
-      <c r="HK2">
-        <v>2012</v>
-      </c>
-      <c r="HL2">
-        <v>2012</v>
-      </c>
-      <c r="HM2">
-        <v>2012</v>
-      </c>
-      <c r="HN2">
-        <v>2012</v>
-      </c>
-      <c r="HO2">
-        <v>2012</v>
-      </c>
-      <c r="HP2">
-        <v>2012</v>
-      </c>
-      <c r="HQ2">
-        <v>2012</v>
-      </c>
-      <c r="HR2">
-        <v>2012</v>
-      </c>
-      <c r="HS2">
-        <v>2012</v>
-      </c>
-      <c r="HT2">
-        <v>2012</v>
-      </c>
-      <c r="HU2">
-        <v>2012</v>
-      </c>
-      <c r="HV2">
-        <v>2012</v>
-      </c>
-      <c r="HW2">
-        <v>2012</v>
-      </c>
-      <c r="HX2">
-        <v>2012</v>
-      </c>
-      <c r="HY2">
-        <v>2012</v>
-      </c>
-      <c r="HZ2">
-        <v>2012</v>
-      </c>
-      <c r="IA2">
-        <v>2012</v>
-      </c>
-      <c r="IB2">
-        <v>2012</v>
-      </c>
-      <c r="IC2">
-        <v>2012</v>
-      </c>
-      <c r="ID2">
-        <v>2012</v>
-      </c>
-      <c r="IE2">
-        <v>2012</v>
-      </c>
-      <c r="IF2">
-        <v>2012</v>
-      </c>
-      <c r="IG2">
-        <v>2012</v>
-      </c>
-      <c r="IH2">
-        <v>2012</v>
-      </c>
     </row>
-    <row r="3" spans="1:242">
+    <row r="3" spans="1:218">
       <c r="C3">
         <v>10</v>
       </c>
@@ -2521,80 +2377,8 @@
       <c r="HJ3">
         <v>10</v>
       </c>
-      <c r="HK3">
-        <v>10</v>
-      </c>
-      <c r="HL3">
-        <v>10</v>
-      </c>
-      <c r="HM3">
-        <v>10</v>
-      </c>
-      <c r="HN3">
-        <v>10</v>
-      </c>
-      <c r="HO3">
-        <v>10</v>
-      </c>
-      <c r="HP3">
-        <v>10</v>
-      </c>
-      <c r="HQ3">
-        <v>10</v>
-      </c>
-      <c r="HR3">
-        <v>10</v>
-      </c>
-      <c r="HS3">
-        <v>10</v>
-      </c>
-      <c r="HT3">
-        <v>10</v>
-      </c>
-      <c r="HU3">
-        <v>10</v>
-      </c>
-      <c r="HV3">
-        <v>10</v>
-      </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>10</v>
-      </c>
-      <c r="HY3">
-        <v>10</v>
-      </c>
-      <c r="HZ3">
-        <v>10</v>
-      </c>
-      <c r="IA3">
-        <v>10</v>
-      </c>
-      <c r="IB3">
-        <v>10</v>
-      </c>
-      <c r="IC3">
-        <v>10</v>
-      </c>
-      <c r="ID3">
-        <v>10</v>
-      </c>
-      <c r="IE3">
-        <v>10</v>
-      </c>
-      <c r="IF3">
-        <v>10</v>
-      </c>
-      <c r="IG3">
-        <v>10</v>
-      </c>
-      <c r="IH3">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:242">
+    <row r="4" spans="1:218">
       <c r="C4">
         <v>1</v>
       </c>
@@ -3243,80 +3027,8 @@
       <c r="HJ4">
         <v>9</v>
       </c>
-      <c r="HK4">
-        <v>10</v>
-      </c>
-      <c r="HL4">
-        <v>10</v>
-      </c>
-      <c r="HM4">
-        <v>10</v>
-      </c>
-      <c r="HN4">
-        <v>10</v>
-      </c>
-      <c r="HO4">
-        <v>10</v>
-      </c>
-      <c r="HP4">
-        <v>10</v>
-      </c>
-      <c r="HQ4">
-        <v>10</v>
-      </c>
-      <c r="HR4">
-        <v>10</v>
-      </c>
-      <c r="HS4">
-        <v>10</v>
-      </c>
-      <c r="HT4">
-        <v>10</v>
-      </c>
-      <c r="HU4">
-        <v>10</v>
-      </c>
-      <c r="HV4">
-        <v>10</v>
-      </c>
-      <c r="HW4">
-        <v>10</v>
-      </c>
-      <c r="HX4">
-        <v>10</v>
-      </c>
-      <c r="HY4">
-        <v>10</v>
-      </c>
-      <c r="HZ4">
-        <v>10</v>
-      </c>
-      <c r="IA4">
-        <v>10</v>
-      </c>
-      <c r="IB4">
-        <v>10</v>
-      </c>
-      <c r="IC4">
-        <v>10</v>
-      </c>
-      <c r="ID4">
-        <v>10</v>
-      </c>
-      <c r="IE4">
-        <v>10</v>
-      </c>
-      <c r="IF4">
-        <v>10</v>
-      </c>
-      <c r="IG4">
-        <v>10</v>
-      </c>
-      <c r="IH4">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:242">
+    <row r="5" spans="1:218">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3971,80 +3683,8 @@
       <c r="HJ5">
         <v>24</v>
       </c>
-      <c r="HK5">
-        <v>1</v>
-      </c>
-      <c r="HL5">
-        <v>2</v>
-      </c>
-      <c r="HM5">
-        <v>3</v>
-      </c>
-      <c r="HN5">
-        <v>4</v>
-      </c>
-      <c r="HO5">
-        <v>5</v>
-      </c>
-      <c r="HP5">
-        <v>6</v>
-      </c>
-      <c r="HQ5">
-        <v>7</v>
-      </c>
-      <c r="HR5">
-        <v>8</v>
-      </c>
-      <c r="HS5">
-        <v>9</v>
-      </c>
-      <c r="HT5">
-        <v>10</v>
-      </c>
-      <c r="HU5">
-        <v>11</v>
-      </c>
-      <c r="HV5">
-        <v>12</v>
-      </c>
-      <c r="HW5">
-        <v>13</v>
-      </c>
-      <c r="HX5">
-        <v>14</v>
-      </c>
-      <c r="HY5">
-        <v>15</v>
-      </c>
-      <c r="HZ5">
-        <v>16</v>
-      </c>
-      <c r="IA5">
-        <v>17</v>
-      </c>
-      <c r="IB5">
-        <v>18</v>
-      </c>
-      <c r="IC5">
-        <v>19</v>
-      </c>
-      <c r="ID5">
-        <v>20</v>
-      </c>
-      <c r="IE5">
-        <v>21</v>
-      </c>
-      <c r="IF5">
-        <v>22</v>
-      </c>
-      <c r="IG5">
-        <v>23</v>
-      </c>
-      <c r="IH5">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:242">
+    <row r="6" spans="1:218">
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4693,80 +4333,8 @@
       <c r="HJ6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="HK6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HL6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HM6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HN6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HO6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="HP6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="HQ6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="HR6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="HS6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="HT6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="HU6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="HV6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="HW6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="HX6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="HY6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="HZ6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IA6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IB6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IC6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ID6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IE6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IF6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IG6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IH6" s="1" t="s">
-        <v>252</v>
-      </c>
     </row>
-    <row r="7" spans="1:242">
+    <row r="7" spans="1:218">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -5421,80 +4989,8 @@
       <c r="HJ7" s="2">
         <v>0</v>
       </c>
-      <c r="HK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH7" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:242">
+    <row r="8" spans="1:218">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6149,80 +5645,8 @@
       <c r="HJ8" s="2">
         <v>0</v>
       </c>
-      <c r="HK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY8" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH8" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:242">
+    <row r="9" spans="1:218">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6877,80 +6301,8 @@
       <c r="HJ9" s="2">
         <v>0</v>
       </c>
-      <c r="HK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY9" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH9" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:242">
+    <row r="10" spans="1:218">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7605,80 +6957,8 @@
       <c r="HJ10" s="2">
         <v>0</v>
       </c>
-      <c r="HK10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY10" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH10" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:242">
+    <row r="11" spans="1:218">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -8333,80 +7613,8 @@
       <c r="HJ11" s="2">
         <v>0</v>
       </c>
-      <c r="HK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY11" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH11" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:242">
+    <row r="12" spans="1:218">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -9061,80 +8269,8 @@
       <c r="HJ12" s="2">
         <v>0</v>
       </c>
-      <c r="HK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY12" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH12" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:242">
+    <row r="13" spans="1:218">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -9789,80 +8925,8 @@
       <c r="HJ13" s="2">
         <v>0</v>
       </c>
-      <c r="HK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY13" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH13" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:242">
+    <row r="14" spans="1:218">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -10517,80 +9581,8 @@
       <c r="HJ14" s="2">
         <v>0</v>
       </c>
-      <c r="HK14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY14" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG14" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH14" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:242">
+    <row r="15" spans="1:218">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -11245,80 +10237,8 @@
       <c r="HJ15" s="2">
         <v>0</v>
       </c>
-      <c r="HK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY15" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH15" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:242">
+    <row r="16" spans="1:218">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -11973,80 +10893,8 @@
       <c r="HJ16" s="2">
         <v>0</v>
       </c>
-      <c r="HK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY16" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH16" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:242">
+    <row r="17" spans="1:218">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -12701,80 +11549,8 @@
       <c r="HJ17" s="2">
         <v>0</v>
       </c>
-      <c r="HK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY17" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH17" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:242">
+    <row r="18" spans="1:218">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -13429,80 +12205,8 @@
       <c r="HJ18" s="2">
         <v>0</v>
       </c>
-      <c r="HK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY18" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH18" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:242">
+    <row r="19" spans="1:218">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -14157,80 +12861,8 @@
       <c r="HJ19" s="2">
         <v>0</v>
       </c>
-      <c r="HK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY19" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC19" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH19" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:242">
+    <row r="20" spans="1:218">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -14885,80 +13517,8 @@
       <c r="HJ20" s="2">
         <v>0</v>
       </c>
-      <c r="HK20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY20" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC20" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH20" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:242">
+    <row r="21" spans="1:218">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -15613,80 +14173,8 @@
       <c r="HJ21" s="2">
         <v>0</v>
       </c>
-      <c r="HK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY21" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC21" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH21" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:242">
+    <row r="22" spans="1:218">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -16339,78 +14827,6 @@
         <v>0</v>
       </c>
       <c r="HJ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IH22" s="2">
         <v>0</v>
       </c>
     </row>
